--- a/xlsx/m-mahjong.xlsx
+++ b/xlsx/m-mahjong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya_3.0\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB3EC9-0F4E-45AB-8DCF-87DDC11FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660EF515-6710-4D75-A5C7-5B6F69A6C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="46">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,34 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>own</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有的牌[[类型，子类数组，数量]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[5,6],4]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[5,6],2],[4,[3,4],2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,[2,2,3,4,5,6,7,8,9],4],[3,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[3,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MahjongCardTypeConfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +188,26 @@
   </si>
   <si>
     <t>MahjongLevelConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有的牌[[类型，数量，子类数组]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,4,1,2,3,4,5,6,7,8,9],[2,4,1,2,3,4,5,6,7,8,9],[4,4,5,6]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,9 +352,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -390,9 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -419,15 +401,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>218720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>94807</xdr:rowOff>
+      <xdr:colOff>228245</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -450,7 +432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15592425" y="838200"/>
+          <a:off x="14163675" y="504825"/>
           <a:ext cx="2838095" cy="3542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -468,15 +450,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>371144</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47181</xdr:rowOff>
+      <xdr:colOff>285419</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,7 +481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="1809750"/>
+          <a:off x="8105775" y="333375"/>
           <a:ext cx="2647619" cy="3552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,16 +498,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590219</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9081</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247319</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -548,7 +530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="2114550"/>
+          <a:off x="8753475" y="342900"/>
           <a:ext cx="2647619" cy="3552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -848,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,7 +842,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -901,13 +883,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -922,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -940,16 +922,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -982,16 +964,16 @@
         <v>360</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7">
         <f>2*9*4+2*4</f>
@@ -1010,16 +992,16 @@
         <v>360</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <f>4*9+4*9+2*2+2*2</f>
@@ -1034,16 +1016,16 @@
         <v>360</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1054,16 +1036,16 @@
         <v>360</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1074,16 +1056,16 @@
         <v>360</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -1094,15 +1076,15 @@
         <v>360</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1114,15 +1096,15 @@
         <v>360</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1134,15 +1116,15 @@
         <v>360</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1154,15 +1136,15 @@
         <v>360</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1174,375 +1156,375 @@
         <v>360</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13">
+        <v>300</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13">
+        <v>300</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13">
+        <v>300</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13">
+        <v>300</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13">
+        <v>300</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16">
+        <v>300</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
-        <v>11</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="E23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16">
         <v>300</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
-        <v>12</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="E24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16">
         <v>300</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="E25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>19</v>
+      </c>
+      <c r="B26" s="16">
         <v>300</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
+      <c r="C26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>20</v>
+      </c>
+      <c r="B27" s="16">
+        <v>300</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18">
+        <v>21</v>
+      </c>
+      <c r="B28" s="18">
+        <v>240</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="14">
-        <v>300</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+      <c r="D28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18">
+        <v>22</v>
+      </c>
+      <c r="B29" s="18">
+        <v>240</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18">
+        <v>23</v>
+      </c>
+      <c r="B30" s="18">
+        <v>240</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="14">
-        <v>300</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="D30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <v>24</v>
+      </c>
+      <c r="B31" s="18">
+        <v>240</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18">
+        <v>25</v>
+      </c>
+      <c r="B32" s="18">
+        <v>240</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="17">
-        <v>300</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="D32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18">
+        <v>26</v>
+      </c>
+      <c r="B33" s="18">
+        <v>240</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17">
-        <v>300</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17">
-        <v>300</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17">
+      <c r="D33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="17">
-        <v>300</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18">
+        <v>27</v>
+      </c>
+      <c r="B34" s="18">
+        <v>240</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18">
+        <v>28</v>
+      </c>
+      <c r="B35" s="18">
+        <v>240</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="17">
-        <v>300</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19">
-        <v>21</v>
-      </c>
-      <c r="B28" s="19">
-        <v>240</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
-        <v>22</v>
-      </c>
-      <c r="B29" s="19">
-        <v>240</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
-        <v>23</v>
-      </c>
-      <c r="B30" s="19">
-        <v>240</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>24</v>
-      </c>
-      <c r="B31" s="19">
-        <v>240</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19">
-        <v>25</v>
-      </c>
-      <c r="B32" s="19">
-        <v>240</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
-        <v>26</v>
-      </c>
-      <c r="B33" s="19">
-        <v>240</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19">
-        <v>27</v>
-      </c>
-      <c r="B34" s="19">
-        <v>240</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
-        <v>28</v>
-      </c>
-      <c r="B35" s="19">
-        <v>240</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1554,16 +1536,16 @@
         <v>240</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1574,13 +1556,13 @@
         <v>240</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -1594,16 +1576,16 @@
         <v>240</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1614,13 +1596,13 @@
         <v>240</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -1634,16 +1616,56 @@
         <v>240</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>240</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>240</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
+      <c r="F42" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1681,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1690,7 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1681,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1699,10 +1721,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1710,10 +1732,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1724,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1746,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1754,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1762,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1770,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1808,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1816,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1807,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1825,10 +1847,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1836,10 +1858,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
